--- a/barcode/SKU_data_updated.xlsx
+++ b/barcode/SKU_data_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\barcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B123BE8-F84D-4D35-BFB0-424CF896726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37182F03-B988-4A24-8647-53611191EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1890,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
